--- a/data-raw/WK_Qualitativ_Ah_20210408.xlsx
+++ b/data-raw/WK_Qualitativ_Ah_20210408.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rata\switchdrive\Projekte\2019_11_Wicoz_Erfolgskontrolle\05_Analysis\WieselundCoData\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D32A25-5667-4075-956B-3982ABD546A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CFB174-FF00-4C59-B04C-F5A8F03C5F06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-345" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -833,10 +833,10 @@
   </sheetPr>
   <dimension ref="A1:AL73"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="T12" sqref="T12"/>
+      <selection pane="bottomLeft" activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="L15" s="38">
         <f t="shared" si="2"/>
-        <v>2.25</v>
+        <v>2.3076923076923075</v>
       </c>
       <c r="M15" s="38">
         <f t="shared" si="2"/>
@@ -1703,7 +1703,7 @@
       </c>
       <c r="N15" s="38">
         <f t="shared" si="2"/>
-        <v>21.076923076923077</v>
+        <v>21.307692307692307</v>
       </c>
       <c r="O15" s="34" t="s">
         <v>33</v>
@@ -1860,13 +1860,15 @@
       <c r="K18" s="21">
         <v>3</v>
       </c>
-      <c r="L18" s="21"/>
+      <c r="L18" s="21">
+        <v>3</v>
+      </c>
       <c r="M18" s="21">
         <v>3</v>
       </c>
       <c r="N18" s="22">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="O18" s="23">
         <v>2</v>
@@ -3167,7 +3169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C033D0DE-2ABF-431F-91AC-A7D66897D23C}">
   <dimension ref="B1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
